--- a/Note work.xlsx
+++ b/Note work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Work\Civil-V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\Civil-engineering-equipment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A3A7E-848B-4787-8676-F7EBB2F52C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA8D8D-142F-4F31-BAB8-3A31D7C31C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="0" windowWidth="11520" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>No.</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>เมื่อ deploy ไปแล้วไม่พบรายการรถ</t>
+  </si>
+  <si>
+    <t>เพิ่มหน้าพลเรือน</t>
+  </si>
+  <si>
+    <t>เพิ่มหน้า คู่มือ</t>
+  </si>
+  <si>
+    <t>เพิ่มการอัพโหลดข้อมูลของ personal</t>
   </si>
 </sst>
 </file>
@@ -101,14 +110,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -457,21 +466,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="65.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,7 +514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -519,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -533,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -547,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -561,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -575,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -589,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -606,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -623,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -640,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -654,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -668,7 +677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -682,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -696,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -710,8 +719,47 @@
         <v>6</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:F100">
+  <conditionalFormatting sqref="A2:F99">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$D2="reject"</formula>
     </cfRule>

--- a/Note work.xlsx
+++ b/Note work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\Civil-engineering-equipment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA8D8D-142F-4F31-BAB8-3A31D7C31C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4110695-E3FC-41AA-B02C-3AD60222AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>No.</t>
   </si>
@@ -99,7 +99,16 @@
     <t>เพิ่มหน้า คู่มือ</t>
   </si>
   <si>
-    <t>เพิ่มการอัพโหลดข้อมูลของ personal</t>
+    <t>แก้ไขการแสดงข้อมูลหน้า เครื่องแปลงความถี่ - เครื่องปั่นไฟ</t>
+  </si>
+  <si>
+    <t>ดึงเอกสารจาก Google drive มาแสดง</t>
+  </si>
+  <si>
+    <t>ทำระบบ login</t>
+  </si>
+  <si>
+    <t>เพิ่มการอัพโหลดข้อมูลของ personal + Documents</t>
   </si>
 </sst>
 </file>
@@ -466,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -752,9 +761,48 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
     </row>

--- a/Note work.xlsx
+++ b/Note work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\Civil-engineering-equipment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4110695-E3FC-41AA-B02C-3AD60222AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44F044-6DF0-406A-8781-D9BA481D20AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>No.</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>เพิ่มการอัพโหลดข้อมูลของ personal + Documents</t>
+  </si>
+  <si>
+    <t>ปรับขนาด menu ให้รองรับหน้า มือถือ</t>
+  </si>
+  <si>
+    <t>แก้ไขปุ่ม logout หน้า equipment ไม่ทำงาน</t>
+  </si>
+  <si>
+    <t>เพิ่มเวลาการ slide menu</t>
+  </si>
+  <si>
+    <t>get user เพิ่มทำการเช็คสิทธิ์ในเมนูต่างๆ</t>
   </si>
 </sst>
 </file>
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -803,6 +815,62 @@
         <v>26</v>
       </c>
       <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
         <v>3</v>
       </c>
     </row>

--- a/Note work.xlsx
+++ b/Note work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\Civil-engineering-equipment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44F044-6DF0-406A-8781-D9BA481D20AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804F1CCB-11F4-4651-B825-FA92C016F85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t>get user เพิ่มทำการเช็คสิทธิ์ในเมนูต่างๆ</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ทำ Soft Delete ของ personnel</t>
+  </si>
+  <si>
+    <t>filter personnel ไม่เอาที่ delete</t>
+  </si>
+  <si>
+    <t>ทำ Soft Delete ของ documents</t>
+  </si>
+  <si>
+    <t>filter documnet ไม่เอาที่ delete</t>
+  </si>
+  <si>
+    <t>ทำอัพเดท personnel</t>
+  </si>
+  <si>
+    <t>ทำอัพเดท Documents</t>
+  </si>
+  <si>
+    <t>sort menu equip ตาม count</t>
+  </si>
+  <si>
+    <t>ตั้งค่า overflow หน้า personnel</t>
   </si>
 </sst>
 </file>
@@ -487,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -740,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -754,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -768,7 +795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -779,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -793,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -807,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -821,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -835,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -849,7 +876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -863,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -872,6 +899,133 @@
       </c>
       <c r="C26">
         <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
